--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -1129,9 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Check Point</t>
   </si>
@@ -136,31 +136,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>No.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>https://movie.douban.com/j/search_tags</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{'type':'movie','source':}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://httpbin.org/post</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST无参数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>183.234.57.139</t>
+    <t>{"type":"movie","source":""}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+            "Content-Type": "application/json;charset=UTF-8",
+            "Accept-Language": "zh-CN,zh;q=0.9",
+            "User-Agent": "Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36",
+        }</t>
+  </si>
+  <si>
+    <t>Headers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName": "**","password": "**"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1127,11 +1135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1140,20 +1148,20 @@
     <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="48.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="48.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -1168,37 +1176,40 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1206,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -1214,50 +1225,61 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="406" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D503">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H503">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"Form,Data,File,Json"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Project_Python\python-unittest-requests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python_Web\python-unittest-requests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1485A482-07EE-47D1-BF69-5DA5D438ADA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -20,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Check Point</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>Request Data</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -94,16 +92,9 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Json</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>获取豆瓣电影</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -140,42 +131,71 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>tags</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie.douban.com/j/search_tags</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"movie","source":""}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {
-            "Content-Type": "application/json;charset=UTF-8",
-            "Accept-Language": "zh-CN,zh;q=0.9",
-            "User-Agent": "Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36",
-        }</t>
-  </si>
-  <si>
     <t>Headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{"userName": "**","password": "**"}</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Body Data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+                    {
+                        "id": "test",
+                        "name": "榕叶",
+                        "seriesID": "test",
+                        "count": 2
+                    }
+                ]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "achievementCount": 0,
+    "curriculumCount": 0,
+    "myPetCount": 0,
+    "seriesCount": 0,
+    "signCount": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/summaryChart/add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增总结图表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除总结图表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/summaryChart/del?summaryChartId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/summaryChart/update</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新总结图表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,15 +359,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -666,7 +677,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +802,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -810,11 +818,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -840,7 +848,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1134,259 +1141,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="48.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.453125" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="48.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="406" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D503">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D502" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H503">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I502" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Form,Data,File,Json"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Form,Data,File,Json"</formula1>
     </dataValidation>
   </dataValidations>
